--- a/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10202_プロジェクト照会.xlsx
+++ b/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10202_プロジェクト照会.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAC8F33-EBB0-4EAA-9F22-F644B254F36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC1F501-8468-4ED3-BAA8-096B84EC734A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="-120" windowWidth="27885" windowHeight="16440" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="388">
   <si>
     <t>PJ名</t>
   </si>
@@ -628,43 +628,6 @@
       <t>コウバンナド</t>
     </rPh>
     <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>全ての入力項目に対して、指定ドメインに応じたバリデーションを実施し、入力内容の妥当性を確認する。</t>
-    <rPh sb="0" eb="1">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ジッシ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="39" eb="42">
-      <t>ダトウセイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>PJ名</t>
@@ -3227,16 +3190,6 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>第１．１版</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>画面レイアウトの貼り替え</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
@@ -3248,6 +3201,67 @@
       <t>カ</t>
     </rPh>
     <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>全ての入力項目に対して、指定ドメインに応じたバリデーションおよび必須チェックを実施し、入力内容の妥当性を確認する。</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ダトウ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>2. WA1020201</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>単項目バリデーションのバリデーション内容の説明を修正</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>第１．２版</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -5423,22 +5437,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>191625</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>6593</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>171414</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>16117</xdr:rowOff>
+      <xdr:colOff>211455</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>62865</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{563A38BD-E391-4257-9697-CE734BC5DEB7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226125B2-6370-4EE9-AB3B-D0E3B8D1D602}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5446,15 +5460,16 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect t="93151"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1583740" y="6139228"/>
-          <a:ext cx="6940366" cy="624985"/>
+          <a:off x="1609725" y="1009650"/>
+          <a:ext cx="6888480" cy="5120640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5466,22 +5481,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>198864</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>17145</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="図 13">
+        <xdr:cNvPr id="7" name="図 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1FA655F-9EB7-4FB4-BF9D-26774D66A6FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF8F2507-3E74-4DBD-9384-5E288BB3A8C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5489,15 +5504,16 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect b="43414"/>
-        <a:stretch/>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1600200" y="1000125"/>
-          <a:ext cx="6885414" cy="5114925"/>
+          <a:off x="1581150" y="6076950"/>
+          <a:ext cx="6888480" cy="617220"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6177,22 +6193,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>38101</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>266701</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>102383</xdr:rowOff>
+      <xdr:rowOff>112395</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E41000FC-469A-40DC-B28A-99E3EF56C603}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25B41741-6954-4A30-A019-4EDAFD09BABD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6208,8 +6224,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="866776" y="1133476"/>
-          <a:ext cx="6858000" cy="3969532"/>
+          <a:off x="876300" y="1143000"/>
+          <a:ext cx="6858000" cy="3970020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6800,7 +6816,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="J23" s="14" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="L23" s="18"/>
     </row>
@@ -6816,7 +6832,7 @@
       <c r="H25" s="5"/>
       <c r="I25" s="153">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>373417</v>
+        <v>44908</v>
       </c>
       <c r="J25" s="153"/>
       <c r="K25" s="153"/>
@@ -7438,7 +7454,7 @@
   <dimension ref="A1:AN34"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10:AE10"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -7451,7 +7467,7 @@
       <c r="C1" s="207"/>
       <c r="D1" s="208"/>
       <c r="E1" s="172" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F1" s="173"/>
       <c r="G1" s="173"/>
@@ -7469,7 +7485,7 @@
       <c r="Q1" s="210"/>
       <c r="R1" s="211"/>
       <c r="S1" s="184" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T1" s="185"/>
       <c r="U1" s="185"/>
@@ -7509,7 +7525,7 @@
       <c r="C2" s="207"/>
       <c r="D2" s="208"/>
       <c r="E2" s="172" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F2" s="173"/>
       <c r="G2" s="173"/>
@@ -7545,7 +7561,7 @@
       <c r="AF2" s="165"/>
       <c r="AG2" s="160">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v>373417</v>
+        <v>44908</v>
       </c>
       <c r="AH2" s="161"/>
       <c r="AI2" s="162"/>
@@ -7563,7 +7579,7 @@
       <c r="C3" s="207"/>
       <c r="D3" s="208"/>
       <c r="E3" s="172" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F3" s="173"/>
       <c r="G3" s="173"/>
@@ -7794,12 +7810,12 @@
       <c r="E8" s="201"/>
       <c r="F8" s="202"/>
       <c r="G8" s="203" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H8" s="204"/>
       <c r="I8" s="205"/>
       <c r="J8" s="181" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K8" s="182"/>
       <c r="L8" s="182"/>
@@ -7808,7 +7824,7 @@
       <c r="O8" s="182"/>
       <c r="P8" s="183"/>
       <c r="Q8" s="157" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R8" s="158"/>
       <c r="S8" s="158"/>
@@ -7825,7 +7841,7 @@
       <c r="AD8" s="158"/>
       <c r="AE8" s="159"/>
       <c r="AF8" s="181" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AG8" s="182"/>
       <c r="AH8" s="182"/>
@@ -7836,21 +7852,21 @@
         <v>2</v>
       </c>
       <c r="B9" s="193" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C9" s="194"/>
       <c r="D9" s="195">
-        <v>373417</v>
+        <v>44699</v>
       </c>
       <c r="E9" s="196"/>
       <c r="F9" s="197"/>
       <c r="G9" s="166" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H9" s="167"/>
       <c r="I9" s="168"/>
       <c r="J9" s="178" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K9" s="179"/>
       <c r="L9" s="179"/>
@@ -7859,7 +7875,7 @@
       <c r="O9" s="179"/>
       <c r="P9" s="180"/>
       <c r="Q9" s="175" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="R9" s="176"/>
       <c r="S9" s="176"/>
@@ -7876,30 +7892,42 @@
       <c r="AD9" s="176"/>
       <c r="AE9" s="177"/>
       <c r="AF9" s="178" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AG9" s="179"/>
       <c r="AH9" s="179"/>
       <c r="AI9" s="180"/>
     </row>
     <row r="10" spans="1:40" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="40"/>
-      <c r="B10" s="193"/>
+      <c r="A10" s="40">
+        <v>3</v>
+      </c>
+      <c r="B10" s="193">
+        <v>1.2</v>
+      </c>
       <c r="C10" s="194"/>
-      <c r="D10" s="195"/>
+      <c r="D10" s="195">
+        <v>44908</v>
+      </c>
       <c r="E10" s="196"/>
       <c r="F10" s="197"/>
-      <c r="G10" s="166"/>
+      <c r="G10" s="166" t="s">
+        <v>380</v>
+      </c>
       <c r="H10" s="167"/>
       <c r="I10" s="168"/>
-      <c r="J10" s="178"/>
+      <c r="J10" s="178" t="s">
+        <v>385</v>
+      </c>
       <c r="K10" s="179"/>
       <c r="L10" s="179"/>
       <c r="M10" s="179"/>
       <c r="N10" s="179"/>
       <c r="O10" s="179"/>
       <c r="P10" s="180"/>
-      <c r="Q10" s="175"/>
+      <c r="Q10" s="175" t="s">
+        <v>386</v>
+      </c>
       <c r="R10" s="176"/>
       <c r="S10" s="176"/>
       <c r="T10" s="176"/>
@@ -7914,7 +7942,9 @@
       <c r="AC10" s="176"/>
       <c r="AD10" s="176"/>
       <c r="AE10" s="177"/>
-      <c r="AF10" s="178"/>
+      <c r="AF10" s="178" t="s">
+        <v>382</v>
+      </c>
       <c r="AG10" s="179"/>
       <c r="AH10" s="179"/>
       <c r="AI10" s="180"/>
@@ -9244,7 +9274,7 @@
       <c r="AF2" s="156"/>
       <c r="AG2" s="220">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>373417</v>
+        <v>44908</v>
       </c>
       <c r="AH2" s="221"/>
       <c r="AI2" s="222"/>
@@ -9528,7 +9558,7 @@
     <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10"/>
       <c r="B10" s="30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -9641,7 +9671,7 @@
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -9828,7 +9858,7 @@
     <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18"/>
       <c r="B18" s="30" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -9868,7 +9898,7 @@
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19" s="30" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -9907,7 +9937,7 @@
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I20"/>
       <c r="J20"/>
@@ -9941,7 +9971,7 @@
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -9980,7 +10010,7 @@
       <c r="A22"/>
       <c r="B22" s="30"/>
       <c r="C22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -10019,7 +10049,7 @@
       <c r="A23"/>
       <c r="B23" s="30"/>
       <c r="C23" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H23"/>
       <c r="I23"/>
@@ -10054,7 +10084,7 @@
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -10336,7 +10366,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="206" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1" s="207"/>
       <c r="C1" s="207"/>
@@ -10435,7 +10465,7 @@
       <c r="AF2" s="156"/>
       <c r="AG2" s="220">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>373417</v>
+        <v>44908</v>
       </c>
       <c r="AH2" s="221"/>
       <c r="AI2" s="222"/>
@@ -10509,7 +10539,7 @@
       <c r="E8" s="244"/>
       <c r="F8" s="245"/>
       <c r="G8" s="178" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H8" s="246"/>
       <c r="I8" s="246"/>
@@ -10547,7 +10577,7 @@
       <c r="E9" s="248"/>
       <c r="F9" s="249"/>
       <c r="G9" s="178" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H9" s="244"/>
       <c r="I9" s="244"/>
@@ -10585,7 +10615,7 @@
       <c r="E10" s="235"/>
       <c r="F10" s="236"/>
       <c r="G10" s="115" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H10" s="63"/>
       <c r="I10" s="63"/>
@@ -10655,7 +10685,7 @@
       <c r="E12" s="238"/>
       <c r="F12" s="239"/>
       <c r="G12" s="116" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
@@ -10727,7 +10757,7 @@
       <c r="E14" s="233"/>
       <c r="F14" s="233"/>
       <c r="G14" s="70" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H14" s="71"/>
       <c r="I14" s="71"/>
@@ -10950,7 +10980,7 @@
       <c r="AF2" s="156"/>
       <c r="AG2" s="220">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>373417</v>
+        <v>44908</v>
       </c>
       <c r="AH2" s="221"/>
       <c r="AI2" s="222"/>
@@ -11008,7 +11038,7 @@
     <row r="4" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -11178,7 +11208,7 @@
         <v>1</v>
       </c>
       <c r="E54" s="317" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F54" s="318"/>
       <c r="G54" s="318"/>
@@ -11189,19 +11219,19 @@
       <c r="L54" s="318"/>
       <c r="M54" s="318"/>
       <c r="N54" s="318" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O54" s="318"/>
       <c r="P54" s="318"/>
       <c r="Q54" s="326" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R54" s="327"/>
       <c r="S54" s="327"/>
       <c r="T54" s="327"/>
       <c r="U54" s="327"/>
       <c r="V54" s="326" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W54" s="327"/>
       <c r="X54" s="327"/>
@@ -11246,7 +11276,7 @@
     </row>
     <row r="57" spans="3:53" x14ac:dyDescent="0.15">
       <c r="C57" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AK57" s="62"/>
       <c r="AL57" s="62"/>
@@ -11326,7 +11356,7 @@
       <c r="AI59" s="90"/>
       <c r="AJ59" s="90"/>
       <c r="AK59" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AL59" s="90"/>
       <c r="AM59" s="90"/>
@@ -11347,7 +11377,7 @@
       <c r="K60" s="329"/>
       <c r="L60" s="330"/>
       <c r="M60" s="337" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N60" s="329"/>
       <c r="O60" s="329"/>
@@ -11438,7 +11468,7 @@
     </row>
     <row r="62" spans="3:53" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D62" s="320" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E62" s="321"/>
       <c r="F62" s="321"/>
@@ -11474,7 +11504,7 @@
       <c r="AJ62" s="90"/>
       <c r="AK62" s="90"/>
       <c r="AL62" s="121" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AM62" s="119"/>
       <c r="AN62" s="119"/>
@@ -11490,19 +11520,19 @@
         <v>1</v>
       </c>
       <c r="E63" s="178" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F63" s="246"/>
       <c r="G63" s="246"/>
       <c r="H63" s="269"/>
       <c r="I63" s="319" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J63" s="319"/>
       <c r="K63" s="319"/>
       <c r="L63" s="319"/>
       <c r="M63" s="265" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N63" s="261"/>
       <c r="O63" s="261"/>
@@ -11512,7 +11542,7 @@
       <c r="S63" s="261"/>
       <c r="T63" s="262"/>
       <c r="U63" s="175" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V63" s="273"/>
       <c r="W63" s="273"/>
@@ -11524,28 +11554,28 @@
       <c r="AA63" s="273"/>
       <c r="AB63" s="274"/>
       <c r="AC63" s="117" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD63" s="175" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE63" s="273"/>
       <c r="AF63" s="273"/>
       <c r="AG63" s="274"/>
       <c r="AL63" s="178" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AM63" s="246" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AN63" s="246" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AO63" s="246" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AP63" s="269" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="64" spans="3:53" s="62" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11554,19 +11584,19 @@
         <v>2</v>
       </c>
       <c r="E64" s="178" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F64" s="246"/>
       <c r="G64" s="246"/>
       <c r="H64" s="269"/>
       <c r="I64" s="319" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J64" s="319"/>
       <c r="K64" s="319"/>
       <c r="L64" s="319"/>
       <c r="M64" s="265" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N64" s="261"/>
       <c r="O64" s="261"/>
@@ -11576,7 +11606,7 @@
       <c r="S64" s="261"/>
       <c r="T64" s="262"/>
       <c r="U64" s="175" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V64" s="273"/>
       <c r="W64" s="273"/>
@@ -11588,28 +11618,28 @@
       <c r="AA64" s="273"/>
       <c r="AB64" s="274"/>
       <c r="AC64" s="117" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD64" s="175" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AE64" s="273"/>
       <c r="AF64" s="273"/>
       <c r="AG64" s="274"/>
       <c r="AL64" s="178" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AM64" s="246" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AN64" s="246" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AO64" s="246" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AP64" s="269" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="4:48" s="61" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11618,13 +11648,13 @@
         <v>3</v>
       </c>
       <c r="E65" s="178" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F65" s="246"/>
       <c r="G65" s="246"/>
       <c r="H65" s="269"/>
       <c r="I65" s="319" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J65" s="319"/>
       <c r="K65" s="319"/>
@@ -11640,22 +11670,22 @@
       <c r="S65" s="261"/>
       <c r="T65" s="262"/>
       <c r="U65" s="175" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="V65" s="273"/>
       <c r="W65" s="273"/>
       <c r="X65" s="273"/>
       <c r="Y65" s="274"/>
       <c r="Z65" s="263" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AA65" s="281"/>
       <c r="AB65" s="281"/>
       <c r="AC65" s="117" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD65" s="280" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AE65" s="273"/>
       <c r="AF65" s="273"/>
@@ -11665,19 +11695,19 @@
       <c r="AJ65" s="90"/>
       <c r="AK65" s="90"/>
       <c r="AL65" s="178" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AM65" s="246" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AN65" s="246" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AO65" s="246" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AP65" s="269" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AQ65" s="90"/>
       <c r="AR65" s="90"/>
@@ -11690,13 +11720,13 @@
         <v>4</v>
       </c>
       <c r="E66" s="178" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F66" s="179"/>
       <c r="G66" s="179"/>
       <c r="H66" s="180"/>
       <c r="I66" s="268" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J66" s="268"/>
       <c r="K66" s="268"/>
@@ -11712,22 +11742,22 @@
       <c r="S66" s="266"/>
       <c r="T66" s="267"/>
       <c r="U66" s="175" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="V66" s="176"/>
       <c r="W66" s="176"/>
       <c r="X66" s="176"/>
       <c r="Y66" s="177"/>
       <c r="Z66" s="263" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AA66" s="263"/>
       <c r="AB66" s="263"/>
       <c r="AC66" s="147" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD66" s="175" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AE66" s="176"/>
       <c r="AF66" s="176"/>
@@ -11737,19 +11767,19 @@
       <c r="AJ66" s="90"/>
       <c r="AK66" s="90"/>
       <c r="AL66" s="178" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AM66" s="246" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AN66" s="246" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AO66" s="246" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AP66" s="269" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AQ66" s="90"/>
       <c r="AR66" s="90"/>
@@ -11762,19 +11792,19 @@
         <v>5</v>
       </c>
       <c r="E67" s="175" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F67" s="179"/>
       <c r="G67" s="179"/>
       <c r="H67" s="180"/>
       <c r="I67" s="264" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J67" s="264"/>
       <c r="K67" s="264"/>
       <c r="L67" s="264"/>
       <c r="M67" s="265" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N67" s="266"/>
       <c r="O67" s="266"/>
@@ -11784,7 +11814,7 @@
       <c r="S67" s="266"/>
       <c r="T67" s="267"/>
       <c r="U67" s="175" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V67" s="176"/>
       <c r="W67" s="176"/>
@@ -11796,28 +11826,28 @@
       <c r="AA67" s="176"/>
       <c r="AB67" s="177"/>
       <c r="AC67" s="147" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD67" s="175" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AE67" s="176"/>
       <c r="AF67" s="176"/>
       <c r="AG67" s="177"/>
       <c r="AL67" s="178" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AM67" s="246" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AN67" s="246" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AO67" s="246" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AP67" s="269" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="68" spans="4:48" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11826,19 +11856,19 @@
         <v>6</v>
       </c>
       <c r="E68" s="175" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F68" s="179"/>
       <c r="G68" s="179"/>
       <c r="H68" s="180"/>
       <c r="I68" s="264" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J68" s="264"/>
       <c r="K68" s="264"/>
       <c r="L68" s="264"/>
       <c r="M68" s="265" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N68" s="266"/>
       <c r="O68" s="266"/>
@@ -11848,7 +11878,7 @@
       <c r="S68" s="266"/>
       <c r="T68" s="267"/>
       <c r="U68" s="175" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V68" s="176"/>
       <c r="W68" s="176"/>
@@ -11860,28 +11890,28 @@
       <c r="AA68" s="176"/>
       <c r="AB68" s="177"/>
       <c r="AC68" s="147" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD68" s="175" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AE68" s="176"/>
       <c r="AF68" s="176"/>
       <c r="AG68" s="177"/>
       <c r="AL68" s="178" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AM68" s="246" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AN68" s="246" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AO68" s="246" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AP68" s="269" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="4:48" s="61" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -11890,19 +11920,19 @@
         <v>7</v>
       </c>
       <c r="E69" s="175" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F69" s="176"/>
       <c r="G69" s="176"/>
       <c r="H69" s="177"/>
       <c r="I69" s="268" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J69" s="268"/>
       <c r="K69" s="268"/>
       <c r="L69" s="268"/>
       <c r="M69" s="265" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N69" s="266"/>
       <c r="O69" s="266"/>
@@ -11912,7 +11942,7 @@
       <c r="S69" s="266"/>
       <c r="T69" s="267"/>
       <c r="U69" s="175" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V69" s="176"/>
       <c r="W69" s="176"/>
@@ -11924,10 +11954,10 @@
       <c r="AA69" s="176"/>
       <c r="AB69" s="177"/>
       <c r="AC69" s="147" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD69" s="175" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AE69" s="176"/>
       <c r="AF69" s="176"/>
@@ -11937,19 +11967,19 @@
       <c r="AJ69" s="90"/>
       <c r="AK69" s="90"/>
       <c r="AL69" s="178" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AM69" s="246" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AN69" s="246" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AO69" s="246" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AP69" s="269" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AQ69" s="90"/>
       <c r="AR69" s="90"/>
@@ -11960,19 +11990,19 @@
         <v>8</v>
       </c>
       <c r="E70" s="175" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F70" s="176"/>
       <c r="G70" s="176"/>
       <c r="H70" s="177"/>
       <c r="I70" s="268" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J70" s="268"/>
       <c r="K70" s="268"/>
       <c r="L70" s="268"/>
       <c r="M70" s="265" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N70" s="266"/>
       <c r="O70" s="266"/>
@@ -11982,7 +12012,7 @@
       <c r="S70" s="266"/>
       <c r="T70" s="267"/>
       <c r="U70" s="175" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V70" s="176"/>
       <c r="W70" s="176"/>
@@ -11994,10 +12024,10 @@
       <c r="AA70" s="176"/>
       <c r="AB70" s="177"/>
       <c r="AC70" s="147" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD70" s="175" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AE70" s="176"/>
       <c r="AF70" s="176"/>
@@ -12007,19 +12037,19 @@
       <c r="AJ70" s="90"/>
       <c r="AK70" s="90"/>
       <c r="AL70" s="178" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AM70" s="246" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AN70" s="246" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AO70" s="246" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AP70" s="269" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AQ70" s="90"/>
       <c r="AR70" s="90"/>
@@ -12030,19 +12060,19 @@
         <v>9</v>
       </c>
       <c r="E71" s="175" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F71" s="176"/>
       <c r="G71" s="176"/>
       <c r="H71" s="177"/>
       <c r="I71" s="268" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J71" s="268"/>
       <c r="K71" s="268"/>
       <c r="L71" s="268"/>
       <c r="M71" s="265" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N71" s="266"/>
       <c r="O71" s="266"/>
@@ -12052,7 +12082,7 @@
       <c r="S71" s="266"/>
       <c r="T71" s="267"/>
       <c r="U71" s="175" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V71" s="176"/>
       <c r="W71" s="176"/>
@@ -12064,28 +12094,28 @@
       <c r="AA71" s="176"/>
       <c r="AB71" s="177"/>
       <c r="AC71" s="147" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD71" s="175" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AE71" s="176"/>
       <c r="AF71" s="176"/>
       <c r="AG71" s="177"/>
       <c r="AL71" s="178" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AM71" s="246" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AN71" s="246" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AO71" s="246" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AP71" s="269" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72" spans="4:48" s="62" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -12094,19 +12124,19 @@
         <v>10</v>
       </c>
       <c r="E72" s="175" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F72" s="176"/>
       <c r="G72" s="176"/>
       <c r="H72" s="177"/>
       <c r="I72" s="268" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J72" s="268"/>
       <c r="K72" s="268"/>
       <c r="L72" s="268"/>
       <c r="M72" s="265" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N72" s="266"/>
       <c r="O72" s="266"/>
@@ -12116,7 +12146,7 @@
       <c r="S72" s="266"/>
       <c r="T72" s="267"/>
       <c r="U72" s="175" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V72" s="176"/>
       <c r="W72" s="176"/>
@@ -12128,28 +12158,28 @@
       <c r="AA72" s="176"/>
       <c r="AB72" s="177"/>
       <c r="AC72" s="147" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD72" s="175" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AE72" s="176"/>
       <c r="AF72" s="176"/>
       <c r="AG72" s="177"/>
       <c r="AL72" s="178" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AM72" s="246" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AN72" s="246" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AO72" s="246" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AP72" s="269" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73" spans="4:48" s="61" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -12158,19 +12188,19 @@
         <v>11</v>
       </c>
       <c r="E73" s="175" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F73" s="176"/>
       <c r="G73" s="176"/>
       <c r="H73" s="177"/>
       <c r="I73" s="268" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J73" s="268"/>
       <c r="K73" s="268"/>
       <c r="L73" s="268"/>
       <c r="M73" s="343" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N73" s="343"/>
       <c r="O73" s="343"/>
@@ -12180,22 +12210,22 @@
       <c r="S73" s="343"/>
       <c r="T73" s="343"/>
       <c r="U73" s="263" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V73" s="263"/>
       <c r="W73" s="263"/>
       <c r="X73" s="263"/>
       <c r="Y73" s="263"/>
       <c r="Z73" s="263" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA73" s="263"/>
       <c r="AB73" s="263"/>
       <c r="AC73" s="147" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD73" s="175" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AE73" s="176"/>
       <c r="AF73" s="176"/>
@@ -12205,19 +12235,19 @@
       <c r="AJ73" s="90"/>
       <c r="AK73" s="90"/>
       <c r="AL73" s="178" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AM73" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AN73" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AO73" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AP73" s="269" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AQ73" s="90"/>
       <c r="AR73" s="90"/>
@@ -12226,7 +12256,7 @@
     </row>
     <row r="74" spans="4:48" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D74" s="320" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E74" s="321"/>
       <c r="F74" s="321"/>
@@ -12262,7 +12292,7 @@
       <c r="AJ74" s="90"/>
       <c r="AK74" s="90"/>
       <c r="AL74" s="121" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM74" s="119"/>
       <c r="AN74" s="119"/>
@@ -12279,19 +12309,19 @@
         <v>12</v>
       </c>
       <c r="E75" s="178" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F75" s="246"/>
       <c r="G75" s="246"/>
       <c r="H75" s="269"/>
       <c r="I75" s="270" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J75" s="271"/>
       <c r="K75" s="271"/>
       <c r="L75" s="272"/>
       <c r="M75" s="343" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N75" s="344"/>
       <c r="O75" s="344"/>
@@ -12301,22 +12331,22 @@
       <c r="S75" s="344"/>
       <c r="T75" s="344"/>
       <c r="U75" s="263" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="V75" s="281"/>
       <c r="W75" s="281"/>
       <c r="X75" s="281"/>
       <c r="Y75" s="281"/>
       <c r="Z75" s="263" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AA75" s="281"/>
       <c r="AB75" s="281"/>
       <c r="AC75" s="117" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD75" s="175" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AE75" s="273"/>
       <c r="AF75" s="273"/>
@@ -12326,19 +12356,19 @@
       <c r="AJ75" s="90"/>
       <c r="AK75" s="90"/>
       <c r="AL75" s="178" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM75" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AN75" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AO75" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AP75" s="269" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AQ75" s="90"/>
       <c r="AR75" s="90"/>
@@ -12351,19 +12381,19 @@
         <v>13</v>
       </c>
       <c r="E76" s="178" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F76" s="246"/>
       <c r="G76" s="246"/>
       <c r="H76" s="269"/>
       <c r="I76" s="270" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J76" s="271"/>
       <c r="K76" s="271"/>
       <c r="L76" s="272"/>
       <c r="M76" s="265" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N76" s="266"/>
       <c r="O76" s="266"/>
@@ -12373,40 +12403,40 @@
       <c r="S76" s="266"/>
       <c r="T76" s="267"/>
       <c r="U76" s="175" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V76" s="273"/>
       <c r="W76" s="273"/>
       <c r="X76" s="273"/>
       <c r="Y76" s="274"/>
       <c r="Z76" s="280" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AA76" s="273"/>
       <c r="AB76" s="274"/>
       <c r="AC76" s="117" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD76" s="175" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AE76" s="273"/>
       <c r="AF76" s="273"/>
       <c r="AG76" s="274"/>
       <c r="AL76" s="178" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM76" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AN76" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AO76" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AP76" s="269" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77" spans="4:48" s="62" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12415,19 +12445,19 @@
         <v>14</v>
       </c>
       <c r="E77" s="178" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F77" s="246"/>
       <c r="G77" s="246"/>
       <c r="H77" s="269"/>
       <c r="I77" s="270" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J77" s="271"/>
       <c r="K77" s="271"/>
       <c r="L77" s="272"/>
       <c r="M77" s="265" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N77" s="266"/>
       <c r="O77" s="266"/>
@@ -12437,40 +12467,40 @@
       <c r="S77" s="266"/>
       <c r="T77" s="267"/>
       <c r="U77" s="175" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V77" s="273"/>
       <c r="W77" s="273"/>
       <c r="X77" s="273"/>
       <c r="Y77" s="274"/>
       <c r="Z77" s="280" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AA77" s="273"/>
       <c r="AB77" s="274"/>
       <c r="AC77" s="117" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD77" s="175" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AE77" s="273"/>
       <c r="AF77" s="273"/>
       <c r="AG77" s="274"/>
       <c r="AL77" s="178" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM77" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AN77" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AO77" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AP77" s="269" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78" spans="4:48" s="61" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12479,19 +12509,19 @@
         <v>15</v>
       </c>
       <c r="E78" s="178" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F78" s="246"/>
       <c r="G78" s="246"/>
       <c r="H78" s="269"/>
       <c r="I78" s="270" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J78" s="271"/>
       <c r="K78" s="271"/>
       <c r="L78" s="272"/>
       <c r="M78" s="265" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N78" s="261"/>
       <c r="O78" s="261"/>
@@ -12501,22 +12531,22 @@
       <c r="S78" s="261"/>
       <c r="T78" s="262"/>
       <c r="U78" s="175" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="V78" s="273"/>
       <c r="W78" s="273"/>
       <c r="X78" s="273"/>
       <c r="Y78" s="274"/>
       <c r="Z78" s="263" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AA78" s="281"/>
       <c r="AB78" s="281"/>
       <c r="AC78" s="117" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD78" s="175" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AE78" s="273"/>
       <c r="AF78" s="273"/>
@@ -12526,19 +12556,19 @@
       <c r="AJ78" s="90"/>
       <c r="AK78" s="90"/>
       <c r="AL78" s="178" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM78" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AN78" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AO78" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AP78" s="269" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AQ78" s="90"/>
       <c r="AR78" s="90"/>
@@ -12551,19 +12581,19 @@
         <v>16</v>
       </c>
       <c r="E79" s="178" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F79" s="246"/>
       <c r="G79" s="246"/>
       <c r="H79" s="269"/>
       <c r="I79" s="270" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J79" s="271"/>
       <c r="K79" s="271"/>
       <c r="L79" s="272"/>
       <c r="M79" s="265" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N79" s="261"/>
       <c r="O79" s="261"/>
@@ -12573,22 +12603,22 @@
       <c r="S79" s="261"/>
       <c r="T79" s="262"/>
       <c r="U79" s="175" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="V79" s="273"/>
       <c r="W79" s="273"/>
       <c r="X79" s="273"/>
       <c r="Y79" s="274"/>
       <c r="Z79" s="263" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AA79" s="281"/>
       <c r="AB79" s="281"/>
       <c r="AC79" s="117" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD79" s="175" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AE79" s="273"/>
       <c r="AF79" s="273"/>
@@ -12598,19 +12628,19 @@
       <c r="AJ79" s="90"/>
       <c r="AK79" s="90"/>
       <c r="AL79" s="178" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM79" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AN79" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AO79" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AP79" s="269" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AQ79" s="90"/>
       <c r="AR79" s="90"/>
@@ -12623,19 +12653,19 @@
         <v>17</v>
       </c>
       <c r="E80" s="178" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F80" s="246"/>
       <c r="G80" s="246"/>
       <c r="H80" s="269"/>
       <c r="I80" s="345" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J80" s="346"/>
       <c r="K80" s="346"/>
       <c r="L80" s="347"/>
       <c r="M80" s="265" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N80" s="261"/>
       <c r="O80" s="261"/>
@@ -12645,40 +12675,40 @@
       <c r="S80" s="261"/>
       <c r="T80" s="262"/>
       <c r="U80" s="175" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V80" s="273"/>
       <c r="W80" s="273"/>
       <c r="X80" s="273"/>
       <c r="Y80" s="274"/>
       <c r="Z80" s="280" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AA80" s="273"/>
       <c r="AB80" s="274"/>
       <c r="AC80" s="117" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD80" s="175" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AE80" s="273"/>
       <c r="AF80" s="273"/>
       <c r="AG80" s="274"/>
       <c r="AL80" s="178" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM80" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AN80" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AO80" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AP80" s="269" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AV80" s="73"/>
     </row>
@@ -12688,19 +12718,19 @@
         <v>18</v>
       </c>
       <c r="E81" s="178" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F81" s="179"/>
       <c r="G81" s="179"/>
       <c r="H81" s="180"/>
       <c r="I81" s="348" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J81" s="349"/>
       <c r="K81" s="349"/>
       <c r="L81" s="350"/>
       <c r="M81" s="265" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N81" s="261"/>
       <c r="O81" s="261"/>
@@ -12710,40 +12740,40 @@
       <c r="S81" s="261"/>
       <c r="T81" s="262"/>
       <c r="U81" s="175" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="V81" s="273"/>
       <c r="W81" s="273"/>
       <c r="X81" s="273"/>
       <c r="Y81" s="274"/>
       <c r="Z81" s="280" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AA81" s="273"/>
       <c r="AB81" s="274"/>
       <c r="AC81" s="117" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD81" s="175" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AE81" s="273"/>
       <c r="AF81" s="273"/>
       <c r="AG81" s="274"/>
       <c r="AL81" s="178" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM81" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AN81" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AO81" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AP81" s="269" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="82" spans="3:44" s="61" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -12752,19 +12782,19 @@
         <v>19</v>
       </c>
       <c r="E82" s="175" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F82" s="273"/>
       <c r="G82" s="273"/>
       <c r="H82" s="274"/>
       <c r="I82" s="270" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J82" s="271"/>
       <c r="K82" s="271"/>
       <c r="L82" s="272"/>
       <c r="M82" s="265" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N82" s="261"/>
       <c r="O82" s="261"/>
@@ -12774,22 +12804,22 @@
       <c r="S82" s="261"/>
       <c r="T82" s="262"/>
       <c r="U82" s="280" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V82" s="273"/>
       <c r="W82" s="273"/>
       <c r="X82" s="273"/>
       <c r="Y82" s="274"/>
       <c r="Z82" s="280" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AA82" s="273"/>
       <c r="AB82" s="274"/>
       <c r="AC82" s="117" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD82" s="175" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AE82" s="273"/>
       <c r="AF82" s="273"/>
@@ -12799,19 +12829,19 @@
       <c r="AJ82" s="90"/>
       <c r="AK82" s="90"/>
       <c r="AL82" s="178" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM82" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AN82" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AO82" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AP82" s="269" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AQ82" s="90"/>
       <c r="AR82" s="90"/>
@@ -12822,19 +12852,19 @@
         <v>20</v>
       </c>
       <c r="E83" s="175" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F83" s="273"/>
       <c r="G83" s="273"/>
       <c r="H83" s="274"/>
       <c r="I83" s="270" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J83" s="271"/>
       <c r="K83" s="271"/>
       <c r="L83" s="272"/>
       <c r="M83" s="265" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N83" s="261"/>
       <c r="O83" s="261"/>
@@ -12844,40 +12874,40 @@
       <c r="S83" s="261"/>
       <c r="T83" s="262"/>
       <c r="U83" s="280" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V83" s="273"/>
       <c r="W83" s="273"/>
       <c r="X83" s="273"/>
       <c r="Y83" s="274"/>
       <c r="Z83" s="280" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AA83" s="273"/>
       <c r="AB83" s="274"/>
       <c r="AC83" s="117" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD83" s="175" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AE83" s="273"/>
       <c r="AF83" s="273"/>
       <c r="AG83" s="274"/>
       <c r="AL83" s="178" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM83" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AN83" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AO83" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AP83" s="269" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84" spans="3:44" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12962,7 +12992,7 @@
     </row>
     <row r="88" spans="3:44" x14ac:dyDescent="0.15">
       <c r="D88" s="250" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E88" s="252" t="s">
         <v>49</v>
@@ -13053,7 +13083,7 @@
         <v>1</v>
       </c>
       <c r="E90" s="338" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F90" s="339"/>
       <c r="G90" s="339"/>
@@ -13061,32 +13091,32 @@
       <c r="I90" s="339"/>
       <c r="J90" s="340"/>
       <c r="K90" s="280" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L90" s="273"/>
       <c r="M90" s="273"/>
       <c r="N90" s="274"/>
       <c r="O90" s="98" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P90" s="110" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q90" s="110" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R90" s="110" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S90" s="110" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T90" s="341" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U90" s="342"/>
       <c r="V90" s="280" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W90" s="273"/>
       <c r="X90" s="273"/>
@@ -13106,7 +13136,7 @@
         <v>2</v>
       </c>
       <c r="E91" s="338" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F91" s="339"/>
       <c r="G91" s="339"/>
@@ -13114,32 +13144,32 @@
       <c r="I91" s="339"/>
       <c r="J91" s="340"/>
       <c r="K91" s="280" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L91" s="273"/>
       <c r="M91" s="273"/>
       <c r="N91" s="274"/>
       <c r="O91" s="98" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P91" s="110" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q91" s="110" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R91" s="110" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S91" s="110" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T91" s="341" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U91" s="342"/>
       <c r="V91" s="280" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W91" s="273"/>
       <c r="X91" s="273"/>
@@ -13265,7 +13295,7 @@
       <c r="AC96" s="335"/>
       <c r="AD96" s="336"/>
       <c r="AE96" s="355" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF96" s="356"/>
       <c r="AG96" s="356"/>
@@ -13276,7 +13306,7 @@
         <v>1</v>
       </c>
       <c r="E97" s="280" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F97" s="273"/>
       <c r="G97" s="273"/>
@@ -13284,7 +13314,7 @@
       <c r="I97" s="273"/>
       <c r="J97" s="274"/>
       <c r="K97" s="280" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L97" s="273"/>
       <c r="M97" s="273"/>
@@ -13293,7 +13323,7 @@
       <c r="P97" s="273"/>
       <c r="Q97" s="274"/>
       <c r="R97" s="175" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="S97" s="273"/>
       <c r="T97" s="273"/>
@@ -13303,7 +13333,7 @@
       <c r="X97" s="273"/>
       <c r="Y97" s="274"/>
       <c r="Z97" s="280" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AA97" s="273"/>
       <c r="AB97" s="273"/>
@@ -13321,7 +13351,7 @@
         <v>2</v>
       </c>
       <c r="E98" s="303" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F98" s="304"/>
       <c r="G98" s="304"/>
@@ -13329,7 +13359,7 @@
       <c r="I98" s="304"/>
       <c r="J98" s="305"/>
       <c r="K98" s="303" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L98" s="304"/>
       <c r="M98" s="304"/>
@@ -13338,7 +13368,7 @@
       <c r="P98" s="304"/>
       <c r="Q98" s="305"/>
       <c r="R98" s="303" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="S98" s="304"/>
       <c r="T98" s="304"/>
@@ -13348,7 +13378,7 @@
       <c r="X98" s="304"/>
       <c r="Y98" s="305"/>
       <c r="Z98" s="303" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA98" s="304"/>
       <c r="AB98" s="304"/>
@@ -13366,7 +13396,7 @@
         <v>3</v>
       </c>
       <c r="E99" s="175" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F99" s="273"/>
       <c r="G99" s="273"/>
@@ -13374,7 +13404,7 @@
       <c r="I99" s="273"/>
       <c r="J99" s="274"/>
       <c r="K99" s="175" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L99" s="273"/>
       <c r="M99" s="273"/>
@@ -13383,7 +13413,7 @@
       <c r="P99" s="273"/>
       <c r="Q99" s="274"/>
       <c r="R99" s="175" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S99" s="273"/>
       <c r="T99" s="273"/>
@@ -13393,7 +13423,7 @@
       <c r="X99" s="273"/>
       <c r="Y99" s="274"/>
       <c r="Z99" s="175" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AA99" s="273"/>
       <c r="AB99" s="273"/>
@@ -13411,7 +13441,7 @@
         <v>4</v>
       </c>
       <c r="E100" s="175" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F100" s="273"/>
       <c r="G100" s="273"/>
@@ -13419,7 +13449,7 @@
       <c r="I100" s="273"/>
       <c r="J100" s="274"/>
       <c r="K100" s="175" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L100" s="273"/>
       <c r="M100" s="273"/>
@@ -13428,7 +13458,7 @@
       <c r="P100" s="273"/>
       <c r="Q100" s="274"/>
       <c r="R100" s="175" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S100" s="273"/>
       <c r="T100" s="273"/>
@@ -13438,7 +13468,7 @@
       <c r="X100" s="273"/>
       <c r="Y100" s="274"/>
       <c r="Z100" s="175" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AA100" s="273"/>
       <c r="AB100" s="273"/>
@@ -13456,7 +13486,7 @@
         <v>5</v>
       </c>
       <c r="E101" s="175" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F101" s="273"/>
       <c r="G101" s="273"/>
@@ -13464,7 +13494,7 @@
       <c r="I101" s="273"/>
       <c r="J101" s="274"/>
       <c r="K101" s="175" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L101" s="273"/>
       <c r="M101" s="273"/>
@@ -13473,7 +13503,7 @@
       <c r="P101" s="273"/>
       <c r="Q101" s="274"/>
       <c r="R101" s="175" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S101" s="273"/>
       <c r="T101" s="273"/>
@@ -13483,7 +13513,7 @@
       <c r="X101" s="273"/>
       <c r="Y101" s="274"/>
       <c r="Z101" s="175" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AA101" s="176"/>
       <c r="AB101" s="176"/>
@@ -13546,7 +13576,7 @@
     </row>
     <row r="105" spans="3:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D105" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E105" s="29"/>
     </row>
@@ -13557,7 +13587,7 @@
     <row r="107" spans="3:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D107" s="29"/>
       <c r="E107" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108" spans="3:36" x14ac:dyDescent="0.15">
@@ -13569,7 +13599,7 @@
       <c r="D109" s="29"/>
       <c r="E109" s="29"/>
       <c r="F109" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="110" spans="3:36" x14ac:dyDescent="0.15">
@@ -13610,17 +13640,17 @@
     </row>
     <row r="112" spans="3:36" x14ac:dyDescent="0.15">
       <c r="E112" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="113" spans="5:58" x14ac:dyDescent="0.15">
       <c r="F113" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="115" spans="5:58" x14ac:dyDescent="0.15">
       <c r="G115" s="285" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H115" s="286"/>
       <c r="I115" s="286"/>
@@ -13632,7 +13662,7 @@
       <c r="O115" s="286"/>
       <c r="P115" s="287"/>
       <c r="Q115" s="282" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R115" s="283"/>
       <c r="S115" s="283"/>
@@ -13646,7 +13676,7 @@
     </row>
     <row r="116" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G116" s="288" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H116" s="289"/>
       <c r="I116" s="289"/>
@@ -13658,7 +13688,7 @@
       <c r="O116" s="289"/>
       <c r="P116" s="290"/>
       <c r="Q116" s="338" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R116" s="339"/>
       <c r="S116" s="339"/>
@@ -13684,7 +13714,7 @@
       <c r="O117" s="292"/>
       <c r="P117" s="293"/>
       <c r="Q117" s="338" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R117" s="339"/>
       <c r="S117" s="339"/>
@@ -13714,7 +13744,7 @@
     </row>
     <row r="118" spans="5:58" x14ac:dyDescent="0.15">
       <c r="G118" s="362" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H118" s="363"/>
       <c r="I118" s="363"/>
@@ -13807,19 +13837,19 @@
     <row r="120" spans="5:58" x14ac:dyDescent="0.15">
       <c r="G120" s="79"/>
       <c r="H120" s="118" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I120" s="80"/>
       <c r="J120" s="80"/>
       <c r="K120" s="80"/>
       <c r="L120" s="81"/>
       <c r="M120" s="81" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N120" s="80"/>
       <c r="O120" s="80"/>
       <c r="P120" s="118" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q120" s="80"/>
       <c r="R120" s="80"/>
@@ -13972,7 +14002,7 @@
     </row>
     <row r="124" spans="5:58" x14ac:dyDescent="0.15">
       <c r="E124" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ124" s="75"/>
       <c r="AK124" s="75"/>
@@ -14026,7 +14056,7 @@
     <row r="126" spans="5:58" x14ac:dyDescent="0.15">
       <c r="E126" s="90"/>
       <c r="F126" s="43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ126" s="75"/>
       <c r="AK126" s="75"/>
@@ -14056,7 +14086,7 @@
       <c r="E127" s="90"/>
       <c r="F127" s="91"/>
       <c r="G127" s="43" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AJ127" s="75"/>
       <c r="AK127" s="75"/>
@@ -14085,7 +14115,7 @@
     <row r="128" spans="5:58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E128" s="43"/>
       <c r="G128" s="43" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AJ128" s="148"/>
       <c r="AK128" s="148"/>
@@ -14142,7 +14172,7 @@
     <row r="130" spans="4:58" x14ac:dyDescent="0.15">
       <c r="E130" s="90"/>
       <c r="F130" s="43" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G130" s="43"/>
       <c r="AJ130" s="75"/>
@@ -14225,7 +14255,7 @@
     </row>
     <row r="133" spans="4:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D133" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E133" s="29"/>
     </row>
@@ -14236,7 +14266,7 @@
     <row r="135" spans="4:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D135" s="29"/>
       <c r="E135" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="136" spans="4:58" x14ac:dyDescent="0.15">
@@ -14248,7 +14278,7 @@
       <c r="D137" s="29"/>
       <c r="E137" s="29"/>
       <c r="F137" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="138" spans="4:58" x14ac:dyDescent="0.15">
@@ -14289,17 +14319,17 @@
     </row>
     <row r="140" spans="4:58" x14ac:dyDescent="0.15">
       <c r="E140" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="141" spans="4:58" x14ac:dyDescent="0.15">
       <c r="F141" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="143" spans="4:58" x14ac:dyDescent="0.15">
       <c r="G143" s="285" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H143" s="286"/>
       <c r="I143" s="286"/>
@@ -14311,7 +14341,7 @@
       <c r="O143" s="286"/>
       <c r="P143" s="287"/>
       <c r="Q143" s="282" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R143" s="283"/>
       <c r="S143" s="283"/>
@@ -14325,7 +14355,7 @@
     </row>
     <row r="144" spans="4:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G144" s="288" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H144" s="289"/>
       <c r="I144" s="289"/>
@@ -14337,7 +14367,7 @@
       <c r="O144" s="289"/>
       <c r="P144" s="290"/>
       <c r="Q144" s="338" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R144" s="339"/>
       <c r="S144" s="339"/>
@@ -14363,7 +14393,7 @@
       <c r="O145" s="292"/>
       <c r="P145" s="293"/>
       <c r="Q145" s="338" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R145" s="339"/>
       <c r="S145" s="339"/>
@@ -14393,7 +14423,7 @@
     </row>
     <row r="146" spans="4:58" x14ac:dyDescent="0.15">
       <c r="G146" s="362" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H146" s="363"/>
       <c r="I146" s="363"/>
@@ -14486,19 +14516,19 @@
     <row r="148" spans="4:58" x14ac:dyDescent="0.15">
       <c r="G148" s="79"/>
       <c r="H148" s="118" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I148" s="80"/>
       <c r="J148" s="80"/>
       <c r="K148" s="80"/>
       <c r="L148" s="81"/>
       <c r="M148" s="81" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N148" s="80"/>
       <c r="O148" s="80"/>
       <c r="P148" s="118" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q148" s="80"/>
       <c r="R148" s="80"/>
@@ -14651,7 +14681,7 @@
     </row>
     <row r="152" spans="4:58" x14ac:dyDescent="0.15">
       <c r="E152" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ152" s="75"/>
       <c r="AK152" s="75"/>
@@ -14705,7 +14735,7 @@
     <row r="154" spans="4:58" x14ac:dyDescent="0.15">
       <c r="E154" s="90"/>
       <c r="F154" s="43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AJ154" s="75"/>
       <c r="AK154" s="75"/>
@@ -14735,7 +14765,7 @@
       <c r="E155" s="90"/>
       <c r="F155" s="91"/>
       <c r="G155" s="43" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AJ155" s="75"/>
       <c r="AK155" s="75"/>
@@ -14764,7 +14794,7 @@
     <row r="156" spans="4:58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E156" s="43"/>
       <c r="G156" s="43" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AJ156" s="148"/>
       <c r="AK156" s="148"/>
@@ -14872,7 +14902,7 @@
     </row>
     <row r="160" spans="4:58" x14ac:dyDescent="0.15">
       <c r="D160" s="26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E160" s="29"/>
       <c r="AJ160" s="75"/>
@@ -14928,7 +14958,7 @@
     </row>
     <row r="162" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E162" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F162" s="29"/>
       <c r="AJ162" s="75"/>
@@ -15020,7 +15050,7 @@
       <c r="AB164" s="298"/>
       <c r="AC164" s="299"/>
       <c r="AD164" s="359" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AE164" s="360"/>
       <c r="AF164" s="360"/>
@@ -15062,7 +15092,7 @@
       <c r="K165" s="261"/>
       <c r="L165" s="262"/>
       <c r="M165" s="265" t="s">
-        <v>87</v>
+        <v>384</v>
       </c>
       <c r="N165" s="261"/>
       <c r="O165" s="261"/>
@@ -15074,18 +15104,18 @@
       <c r="U165" s="261"/>
       <c r="V165" s="262"/>
       <c r="W165" s="300" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="X165" s="301"/>
       <c r="Y165" s="302"/>
       <c r="Z165" s="265" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AA165" s="266"/>
       <c r="AB165" s="266"/>
       <c r="AC165" s="267"/>
       <c r="AD165" s="265" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AE165" s="261"/>
       <c r="AF165" s="261"/>
@@ -15120,7 +15150,7 @@
         <v>2</v>
       </c>
       <c r="G166" s="358" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H166" s="244"/>
       <c r="I166" s="244"/>
@@ -15128,7 +15158,7 @@
       <c r="K166" s="244"/>
       <c r="L166" s="245"/>
       <c r="M166" s="294" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N166" s="295"/>
       <c r="O166" s="295"/>
@@ -15140,7 +15170,7 @@
       <c r="U166" s="295"/>
       <c r="V166" s="296"/>
       <c r="W166" s="300" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="X166" s="301"/>
       <c r="Y166" s="302"/>
@@ -15151,7 +15181,7 @@
       <c r="AB166" s="261"/>
       <c r="AC166" s="262"/>
       <c r="AD166" s="294" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AE166" s="295"/>
       <c r="AF166" s="295"/>
@@ -15165,7 +15195,7 @@
         <v>3</v>
       </c>
       <c r="G167" s="358" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H167" s="244"/>
       <c r="I167" s="244"/>
@@ -15173,7 +15203,7 @@
       <c r="K167" s="244"/>
       <c r="L167" s="245"/>
       <c r="M167" s="294" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N167" s="295"/>
       <c r="O167" s="295"/>
@@ -15185,7 +15215,7 @@
       <c r="U167" s="295"/>
       <c r="V167" s="296"/>
       <c r="W167" s="300" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X167" s="301"/>
       <c r="Y167" s="302"/>
@@ -15196,7 +15226,7 @@
       <c r="AB167" s="261"/>
       <c r="AC167" s="262"/>
       <c r="AD167" s="294" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AE167" s="295"/>
       <c r="AF167" s="295"/>
@@ -15210,7 +15240,7 @@
         <v>4</v>
       </c>
       <c r="G168" s="358" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H168" s="244"/>
       <c r="I168" s="244"/>
@@ -15218,7 +15248,7 @@
       <c r="K168" s="244"/>
       <c r="L168" s="245"/>
       <c r="M168" s="294" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N168" s="295"/>
       <c r="O168" s="295"/>
@@ -15230,7 +15260,7 @@
       <c r="U168" s="295"/>
       <c r="V168" s="296"/>
       <c r="W168" s="300" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X168" s="301"/>
       <c r="Y168" s="302"/>
@@ -15241,7 +15271,7 @@
       <c r="AB168" s="261"/>
       <c r="AC168" s="262"/>
       <c r="AD168" s="294" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AE168" s="295"/>
       <c r="AF168" s="295"/>
@@ -15258,7 +15288,7 @@
     <row r="170" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E170" s="29"/>
       <c r="F170" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="171" spans="1:58" x14ac:dyDescent="0.15">
@@ -15272,7 +15302,7 @@
     </row>
     <row r="173" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E173" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F173" s="93"/>
       <c r="G173" s="93"/>
@@ -15308,12 +15338,12 @@
     </row>
     <row r="174" spans="1:58" x14ac:dyDescent="0.15">
       <c r="F174" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="176" spans="1:58" x14ac:dyDescent="0.15">
       <c r="G176" s="150" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H176" s="151"/>
       <c r="I176" s="151"/>
@@ -15322,7 +15352,7 @@
       <c r="L176" s="151"/>
       <c r="M176" s="151"/>
       <c r="N176" s="282" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O176" s="283"/>
       <c r="P176" s="283"/>
@@ -15348,7 +15378,7 @@
     </row>
     <row r="177" spans="7:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G177" s="115" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H177" s="125"/>
       <c r="I177" s="125"/>
@@ -15357,7 +15387,7 @@
       <c r="L177" s="125"/>
       <c r="M177" s="125"/>
       <c r="N177" s="338" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O177" s="339"/>
       <c r="P177" s="339"/>
@@ -15369,7 +15399,7 @@
       <c r="V177" s="339"/>
       <c r="W177" s="340"/>
       <c r="X177" s="338" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y177" s="339"/>
       <c r="Z177" s="339"/>
@@ -15390,7 +15420,7 @@
       <c r="L178" s="152"/>
       <c r="M178" s="152"/>
       <c r="N178" s="338" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O178" s="339"/>
       <c r="P178" s="339"/>
@@ -15402,7 +15432,7 @@
       <c r="V178" s="339"/>
       <c r="W178" s="340"/>
       <c r="X178" s="338" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Y178" s="339"/>
       <c r="Z178" s="339"/>
@@ -15423,7 +15453,7 @@
       <c r="L179" s="152"/>
       <c r="M179" s="152"/>
       <c r="N179" s="338" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O179" s="339"/>
       <c r="P179" s="339"/>
@@ -15435,7 +15465,7 @@
       <c r="V179" s="339"/>
       <c r="W179" s="340"/>
       <c r="X179" s="338" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Y179" s="339"/>
       <c r="Z179" s="339"/>
@@ -15456,7 +15486,7 @@
       <c r="L180" s="152"/>
       <c r="M180" s="152"/>
       <c r="N180" s="338" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O180" s="339"/>
       <c r="P180" s="339"/>
@@ -15468,7 +15498,7 @@
       <c r="V180" s="339"/>
       <c r="W180" s="340"/>
       <c r="X180" s="338" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Y180" s="339"/>
       <c r="Z180" s="339"/>
@@ -15489,7 +15519,7 @@
       <c r="L181" s="152"/>
       <c r="M181" s="152"/>
       <c r="N181" s="338" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O181" s="339"/>
       <c r="P181" s="339"/>
@@ -15501,7 +15531,7 @@
       <c r="V181" s="339"/>
       <c r="W181" s="340"/>
       <c r="X181" s="338" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Y181" s="339"/>
       <c r="Z181" s="339"/>
@@ -15522,7 +15552,7 @@
       <c r="L182" s="152"/>
       <c r="M182" s="152"/>
       <c r="N182" s="338" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O182" s="339"/>
       <c r="P182" s="339"/>
@@ -15534,7 +15564,7 @@
       <c r="V182" s="339"/>
       <c r="W182" s="340"/>
       <c r="X182" s="338" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Y182" s="339"/>
       <c r="Z182" s="339"/>
@@ -15555,7 +15585,7 @@
       <c r="L183" s="152"/>
       <c r="M183" s="152"/>
       <c r="N183" s="338" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O183" s="339"/>
       <c r="P183" s="339"/>
@@ -15567,7 +15597,7 @@
       <c r="V183" s="339"/>
       <c r="W183" s="340"/>
       <c r="X183" s="338" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Y183" s="339"/>
       <c r="Z183" s="339"/>
@@ -15588,7 +15618,7 @@
       <c r="L184" s="127"/>
       <c r="M184" s="127"/>
       <c r="N184" s="338" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O184" s="339"/>
       <c r="P184" s="339"/>
@@ -15600,7 +15630,7 @@
       <c r="V184" s="339"/>
       <c r="W184" s="340"/>
       <c r="X184" s="338" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Y184" s="339"/>
       <c r="Z184" s="339"/>
@@ -15614,7 +15644,7 @@
     </row>
     <row r="185" spans="7:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G185" s="178" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H185" s="179"/>
       <c r="I185" s="179"/>
@@ -15623,7 +15653,7 @@
       <c r="L185" s="179"/>
       <c r="M185" s="180"/>
       <c r="N185" s="338" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O185" s="339"/>
       <c r="P185" s="339"/>
@@ -15635,7 +15665,7 @@
       <c r="V185" s="339"/>
       <c r="W185" s="340"/>
       <c r="X185" s="338" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Y185" s="339"/>
       <c r="Z185" s="339"/>
@@ -15649,7 +15679,7 @@
     </row>
     <row r="186" spans="7:58" x14ac:dyDescent="0.15">
       <c r="G186" s="178" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H186" s="179"/>
       <c r="I186" s="179"/>
@@ -15658,7 +15688,7 @@
       <c r="L186" s="179"/>
       <c r="M186" s="180"/>
       <c r="N186" s="338" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O186" s="339"/>
       <c r="P186" s="339"/>
@@ -15670,7 +15700,7 @@
       <c r="V186" s="339"/>
       <c r="W186" s="340"/>
       <c r="X186" s="338" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Y186" s="339"/>
       <c r="Z186" s="339"/>
@@ -15694,7 +15724,7 @@
     </row>
     <row r="187" spans="7:58" x14ac:dyDescent="0.15">
       <c r="G187" s="366" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H187" s="363"/>
       <c r="I187" s="363"/>
@@ -15795,7 +15825,7 @@
     <row r="189" spans="7:58" x14ac:dyDescent="0.15">
       <c r="G189" s="79"/>
       <c r="H189" s="118" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I189" s="80"/>
       <c r="J189" s="80"/>
@@ -15878,13 +15908,13 @@
       <c r="G191" s="79"/>
       <c r="H191" s="118"/>
       <c r="I191" s="134" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J191" s="81"/>
       <c r="K191" s="80"/>
       <c r="L191" s="80"/>
       <c r="M191" s="118" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N191" s="80"/>
       <c r="O191" s="80"/>
@@ -15928,20 +15958,20 @@
       <c r="G192" s="79"/>
       <c r="H192" s="118"/>
       <c r="I192" s="118" t="s">
+        <v>244</v>
+      </c>
+      <c r="J192" s="80" t="s">
         <v>245</v>
-      </c>
-      <c r="J192" s="80" t="s">
-        <v>246</v>
       </c>
       <c r="K192" s="80"/>
       <c r="L192" s="81"/>
       <c r="M192" s="81"/>
       <c r="N192" s="80"/>
       <c r="O192" s="118" t="s">
+        <v>249</v>
+      </c>
+      <c r="P192" s="118" t="s">
         <v>250</v>
-      </c>
-      <c r="P192" s="118" t="s">
-        <v>251</v>
       </c>
       <c r="Q192" s="80"/>
       <c r="R192" s="80"/>
@@ -16028,13 +16058,13 @@
       <c r="G194" s="79"/>
       <c r="H194" s="118"/>
       <c r="I194" s="134" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J194" s="81"/>
       <c r="K194" s="80"/>
       <c r="L194" s="80"/>
       <c r="M194" s="118" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N194" s="80"/>
       <c r="O194" s="80"/>
@@ -16078,20 +16108,20 @@
       <c r="G195" s="79"/>
       <c r="H195" s="118"/>
       <c r="I195" s="118" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J195" s="118" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K195" s="80"/>
       <c r="L195" s="81"/>
       <c r="M195" s="81"/>
       <c r="N195" s="80"/>
       <c r="O195" s="118" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P195" s="118" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q195" s="80"/>
       <c r="R195" s="80"/>
@@ -16182,7 +16212,7 @@
     </row>
     <row r="197" spans="7:58" x14ac:dyDescent="0.15">
       <c r="G197" s="362" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H197" s="363"/>
       <c r="I197" s="363"/>
@@ -16283,19 +16313,19 @@
     <row r="199" spans="7:58" x14ac:dyDescent="0.15">
       <c r="G199" s="79"/>
       <c r="J199" s="118" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K199" s="80"/>
       <c r="L199" s="80"/>
       <c r="M199" s="80"/>
       <c r="N199" s="81"/>
       <c r="R199" s="81" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S199" s="80"/>
       <c r="T199" s="80"/>
       <c r="U199" s="118" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="V199" s="80"/>
       <c r="W199" s="80"/>
@@ -16303,7 +16333,7 @@
       <c r="Y199" s="80"/>
       <c r="Z199" s="89"/>
       <c r="AA199" s="135" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AG199" s="130"/>
       <c r="AJ199" s="75"/>
@@ -16338,7 +16368,7 @@
       <c r="Y200" s="80"/>
       <c r="Z200" s="89"/>
       <c r="AA200" s="143" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AG200" s="130"/>
       <c r="AJ200" s="75"/>
@@ -16368,22 +16398,22 @@
     <row r="201" spans="7:58" x14ac:dyDescent="0.15">
       <c r="G201" s="79"/>
       <c r="H201" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J201" s="118" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K201" s="80"/>
       <c r="L201" s="80"/>
       <c r="M201" s="80"/>
       <c r="N201" s="81"/>
       <c r="R201" s="81" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S201" s="80"/>
       <c r="T201" s="80"/>
       <c r="U201" s="118" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="V201" s="80"/>
       <c r="W201" s="80"/>
@@ -16461,22 +16491,22 @@
     <row r="203" spans="7:58" x14ac:dyDescent="0.15">
       <c r="G203" s="79"/>
       <c r="H203" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J203" s="118" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K203" s="80"/>
       <c r="L203" s="80"/>
       <c r="M203" s="80"/>
       <c r="N203" s="81"/>
       <c r="R203" s="134" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="S203" s="80"/>
       <c r="T203" s="80"/>
       <c r="U203" s="118" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="V203" s="80"/>
       <c r="W203" s="80"/>
@@ -16554,22 +16584,22 @@
     <row r="205" spans="7:58" x14ac:dyDescent="0.15">
       <c r="G205" s="79"/>
       <c r="H205" t="s">
+        <v>257</v>
+      </c>
+      <c r="J205" s="118" t="s">
         <v>258</v>
-      </c>
-      <c r="J205" s="118" t="s">
-        <v>259</v>
       </c>
       <c r="K205" s="80"/>
       <c r="L205" s="80"/>
       <c r="M205" s="80"/>
       <c r="N205" s="81"/>
       <c r="R205" s="134" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="S205" s="80"/>
       <c r="T205" s="80"/>
       <c r="U205" s="118" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="V205" s="80"/>
       <c r="W205" s="80"/>
@@ -16647,22 +16677,22 @@
     <row r="207" spans="7:58" x14ac:dyDescent="0.15">
       <c r="G207" s="79"/>
       <c r="H207" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J207" s="118" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K207" s="80"/>
       <c r="L207" s="80"/>
       <c r="M207" s="80"/>
       <c r="N207" s="81"/>
       <c r="R207" s="134" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="S207" s="80"/>
       <c r="T207" s="80"/>
       <c r="U207" s="118" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="V207" s="80"/>
       <c r="W207" s="80"/>
@@ -16739,10 +16769,10 @@
     <row r="209" spans="7:58" x14ac:dyDescent="0.15">
       <c r="G209" s="79"/>
       <c r="H209" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J209" s="118" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K209" s="80"/>
       <c r="L209" s="81"/>
@@ -16751,12 +16781,12 @@
       <c r="O209" s="80"/>
       <c r="P209" s="118"/>
       <c r="R209" s="118" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="S209" s="118"/>
       <c r="T209" s="80"/>
       <c r="U209" s="118" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V209" s="80"/>
       <c r="W209" s="80"/>
@@ -16836,22 +16866,22 @@
     <row r="211" spans="7:58" x14ac:dyDescent="0.15">
       <c r="G211" s="79"/>
       <c r="H211" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J211" s="118" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K211" s="80"/>
       <c r="L211" s="80"/>
       <c r="M211" s="80"/>
       <c r="N211" s="81"/>
       <c r="R211" s="134" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="S211" s="80"/>
       <c r="T211" s="80"/>
       <c r="U211" s="118" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="V211" s="80"/>
       <c r="W211" s="80"/>
@@ -16928,10 +16958,10 @@
     <row r="213" spans="7:58" x14ac:dyDescent="0.15">
       <c r="G213" s="79"/>
       <c r="H213" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J213" s="118" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K213" s="80"/>
       <c r="L213" s="81"/>
@@ -16940,12 +16970,12 @@
       <c r="O213" s="80"/>
       <c r="P213" s="118"/>
       <c r="R213" s="118" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="S213" s="118"/>
       <c r="T213" s="80"/>
       <c r="U213" s="118" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="V213" s="80"/>
       <c r="W213" s="80"/>
@@ -17025,22 +17055,22 @@
     <row r="215" spans="7:58" x14ac:dyDescent="0.15">
       <c r="G215" s="79"/>
       <c r="H215" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J215" s="118" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K215" s="80"/>
       <c r="L215" s="80"/>
       <c r="M215" s="80"/>
       <c r="N215" s="81"/>
       <c r="R215" s="134" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="S215" s="80"/>
       <c r="T215" s="80"/>
       <c r="U215" s="118" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="V215" s="80"/>
       <c r="W215" s="80"/>
@@ -17117,10 +17147,10 @@
     <row r="217" spans="7:58" x14ac:dyDescent="0.15">
       <c r="G217" s="79"/>
       <c r="H217" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J217" s="118" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K217" s="80"/>
       <c r="L217" s="81"/>
@@ -17129,12 +17159,12 @@
       <c r="O217" s="80"/>
       <c r="P217" s="118"/>
       <c r="R217" s="118" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="S217" s="118"/>
       <c r="T217" s="80"/>
       <c r="U217" s="118" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="V217" s="80"/>
       <c r="W217" s="80"/>
@@ -17214,22 +17244,22 @@
     <row r="219" spans="7:58" x14ac:dyDescent="0.15">
       <c r="G219" s="79"/>
       <c r="H219" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J219" s="118" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K219" s="80"/>
       <c r="L219" s="80"/>
       <c r="M219" s="80"/>
       <c r="N219" s="81"/>
       <c r="R219" s="134" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S219" s="80"/>
       <c r="T219" s="80"/>
       <c r="U219" s="118" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="V219" s="80"/>
       <c r="W219" s="80"/>
@@ -17315,7 +17345,7 @@
     </row>
     <row r="221" spans="7:58" x14ac:dyDescent="0.15">
       <c r="G221" s="366" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H221" s="363"/>
       <c r="I221" s="363"/>
@@ -17422,12 +17452,12 @@
     <row r="223" spans="7:58" x14ac:dyDescent="0.15">
       <c r="G223" s="79"/>
       <c r="H223" s="118" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I223" s="80"/>
       <c r="J223" s="80"/>
       <c r="K223" s="118" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L223" s="81"/>
       <c r="M223" s="81"/>
@@ -17548,7 +17578,7 @@
     </row>
     <row r="226" spans="4:60" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E226" s="62" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F226" s="93"/>
       <c r="G226" s="93"/>
@@ -17608,7 +17638,7 @@
     <row r="227" spans="4:60" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E227" s="62"/>
       <c r="F227" s="43" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G227" s="93"/>
       <c r="H227" s="93"/>
@@ -17726,7 +17756,7 @@
     <row r="229" spans="4:60" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F229" s="62"/>
       <c r="G229" s="43" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H229" s="90"/>
       <c r="I229" s="93"/>
@@ -17785,7 +17815,7 @@
     <row r="230" spans="4:60" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F230" s="62"/>
       <c r="G230" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H230" s="93"/>
       <c r="I230" s="93"/>
@@ -17862,7 +17892,7 @@
     <row r="232" spans="4:60" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E232" s="62"/>
       <c r="F232" s="43" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G232" s="93"/>
       <c r="H232" s="93"/>
@@ -17938,7 +17968,7 @@
     <row r="234" spans="4:60" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F234" s="62"/>
       <c r="G234" s="43" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H234" s="93"/>
       <c r="I234" s="93"/>
@@ -17976,7 +18006,7 @@
     <row r="235" spans="4:60" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F235" s="62"/>
       <c r="G235" s="90" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H235" s="93"/>
       <c r="I235" s="93"/>
@@ -18084,7 +18114,7 @@
     </row>
     <row r="238" spans="4:60" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D238" s="26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E238" s="93"/>
       <c r="F238" s="93"/>
@@ -18163,7 +18193,7 @@
     <row r="240" spans="4:60" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D240" s="62"/>
       <c r="E240" s="43" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F240" s="90"/>
       <c r="G240" s="90"/>
@@ -18204,7 +18234,7 @@
       <c r="D241" s="62"/>
       <c r="E241" s="90"/>
       <c r="F241" s="43" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G241" s="90"/>
       <c r="H241" s="93"/>
@@ -18243,7 +18273,7 @@
       <c r="D242" s="62"/>
       <c r="E242" s="90"/>
       <c r="F242" s="43" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G242" s="90"/>
       <c r="H242" s="93"/>
@@ -18281,7 +18311,7 @@
       <c r="D243" s="62"/>
       <c r="E243" s="93"/>
       <c r="F243" s="43" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G243" s="93"/>
       <c r="H243" s="93"/>
@@ -18319,7 +18349,7 @@
       <c r="D244" s="62"/>
       <c r="E244" s="93"/>
       <c r="F244" s="43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G244" s="93"/>
       <c r="H244" s="93"/>
@@ -18357,7 +18387,7 @@
       <c r="D245" s="62"/>
       <c r="E245" s="93"/>
       <c r="F245" s="43" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G245" s="93"/>
       <c r="H245" s="93"/>
@@ -18429,7 +18459,7 @@
     </row>
     <row r="247" spans="4:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D247" s="144" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E247" s="93"/>
       <c r="F247" s="43"/>
@@ -18504,7 +18534,7 @@
     <row r="249" spans="4:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D249" s="62"/>
       <c r="E249" s="43" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L249" s="93"/>
       <c r="M249" s="93"/>
@@ -18990,7 +19020,7 @@
       <c r="AF2" s="156"/>
       <c r="AG2" s="220">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>373417</v>
+        <v>44908</v>
       </c>
       <c r="AH2" s="221"/>
       <c r="AI2" s="222"/>
@@ -19048,12 +19078,12 @@
     <row r="4" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="26" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AK6" s="146"/>
     </row>
@@ -19088,7 +19118,7 @@
     <row r="35" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="36" spans="3:53" x14ac:dyDescent="0.15">
       <c r="C36" s="26" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D36" s="96"/>
       <c r="E36" s="96"/>
@@ -19202,7 +19232,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="327" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F39" s="327"/>
       <c r="G39" s="327"/>
@@ -19213,22 +19243,22 @@
       <c r="L39" s="327"/>
       <c r="M39" s="327"/>
       <c r="N39" s="327" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O39" s="327"/>
       <c r="P39" s="327"/>
       <c r="Q39" s="370" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="R39" s="276"/>
       <c r="S39" s="276"/>
       <c r="T39" s="276"/>
       <c r="U39" s="277"/>
       <c r="V39" s="327" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W39" s="327" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="X39" s="327"/>
       <c r="Y39" s="327"/>
@@ -19272,7 +19302,7 @@
     </row>
     <row r="42" spans="3:53" x14ac:dyDescent="0.15">
       <c r="C42" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AK42" s="62"/>
       <c r="AL42" s="62"/>
@@ -19352,7 +19382,7 @@
       <c r="AI44" s="90"/>
       <c r="AJ44" s="90"/>
       <c r="AK44" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AL44" s="90"/>
       <c r="AM44" s="90"/>
@@ -19373,7 +19403,7 @@
       <c r="K45" s="329"/>
       <c r="L45" s="330"/>
       <c r="M45" s="337" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N45" s="329"/>
       <c r="O45" s="329"/>
@@ -19464,7 +19494,7 @@
     </row>
     <row r="47" spans="3:53" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D47" s="320" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E47" s="321"/>
       <c r="F47" s="321"/>
@@ -19500,7 +19530,7 @@
       <c r="AJ47" s="90"/>
       <c r="AK47" s="90"/>
       <c r="AL47" s="121" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM47" s="119"/>
       <c r="AN47" s="119"/>
@@ -19516,19 +19546,19 @@
         <v>1</v>
       </c>
       <c r="E48" s="178" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F48" s="179"/>
       <c r="G48" s="179"/>
       <c r="H48" s="180"/>
       <c r="I48" s="345" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J48" s="346"/>
       <c r="K48" s="346"/>
       <c r="L48" s="347"/>
       <c r="M48" s="265" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N48" s="266"/>
       <c r="O48" s="266"/>
@@ -19538,40 +19568,40 @@
       <c r="S48" s="266"/>
       <c r="T48" s="267"/>
       <c r="U48" s="175" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="V48" s="176"/>
       <c r="W48" s="176"/>
       <c r="X48" s="176"/>
       <c r="Y48" s="177"/>
       <c r="Z48" s="175" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AA48" s="176"/>
       <c r="AB48" s="177"/>
       <c r="AC48" s="117" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD48" s="175" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AE48" s="273"/>
       <c r="AF48" s="273"/>
       <c r="AG48" s="274"/>
       <c r="AL48" s="178" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM48" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AN48" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AO48" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AP48" s="269" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="3:48" s="62" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19580,19 +19610,19 @@
         <v>2</v>
       </c>
       <c r="E49" s="178" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F49" s="179"/>
       <c r="G49" s="179"/>
       <c r="H49" s="180"/>
       <c r="I49" s="345" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J49" s="346"/>
       <c r="K49" s="346"/>
       <c r="L49" s="347"/>
       <c r="M49" s="265" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N49" s="266"/>
       <c r="O49" s="266"/>
@@ -19602,40 +19632,40 @@
       <c r="S49" s="266"/>
       <c r="T49" s="267"/>
       <c r="U49" s="175" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="V49" s="176"/>
       <c r="W49" s="176"/>
       <c r="X49" s="176"/>
       <c r="Y49" s="177"/>
       <c r="Z49" s="175" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AA49" s="176"/>
       <c r="AB49" s="177"/>
       <c r="AC49" s="117" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD49" s="175" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AE49" s="273"/>
       <c r="AF49" s="273"/>
       <c r="AG49" s="274"/>
       <c r="AL49" s="178" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM49" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AN49" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AO49" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AP49" s="269" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="3:48" s="61" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -19644,19 +19674,19 @@
         <v>3</v>
       </c>
       <c r="E50" s="178" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F50" s="179"/>
       <c r="G50" s="179"/>
       <c r="H50" s="180"/>
       <c r="I50" s="345" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J50" s="346"/>
       <c r="K50" s="346"/>
       <c r="L50" s="347"/>
       <c r="M50" s="343" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N50" s="343"/>
       <c r="O50" s="343"/>
@@ -19666,22 +19696,22 @@
       <c r="S50" s="343"/>
       <c r="T50" s="343"/>
       <c r="U50" s="263" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V50" s="263"/>
       <c r="W50" s="263"/>
       <c r="X50" s="263"/>
       <c r="Y50" s="263"/>
       <c r="Z50" s="263" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AA50" s="263"/>
       <c r="AB50" s="263"/>
       <c r="AC50" s="117" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD50" s="175" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AE50" s="273"/>
       <c r="AF50" s="273"/>
@@ -19691,19 +19721,19 @@
       <c r="AJ50" s="90"/>
       <c r="AK50" s="90"/>
       <c r="AL50" s="178" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM50" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AN50" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AO50" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AP50" s="269" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AQ50" s="90"/>
       <c r="AR50" s="90"/>
@@ -19716,19 +19746,19 @@
         <v>4</v>
       </c>
       <c r="E51" s="178" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F51" s="179"/>
       <c r="G51" s="179"/>
       <c r="H51" s="180"/>
       <c r="I51" s="345" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J51" s="346"/>
       <c r="K51" s="346"/>
       <c r="L51" s="347"/>
       <c r="M51" s="265" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N51" s="266"/>
       <c r="O51" s="266"/>
@@ -19738,22 +19768,22 @@
       <c r="S51" s="266"/>
       <c r="T51" s="267"/>
       <c r="U51" s="175" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="V51" s="176"/>
       <c r="W51" s="176"/>
       <c r="X51" s="176"/>
       <c r="Y51" s="177"/>
       <c r="Z51" s="263" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AA51" s="263"/>
       <c r="AB51" s="263"/>
       <c r="AC51" s="117" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD51" s="175" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AE51" s="273"/>
       <c r="AF51" s="273"/>
@@ -19763,19 +19793,19 @@
       <c r="AJ51" s="90"/>
       <c r="AK51" s="90"/>
       <c r="AL51" s="178" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM51" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AN51" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AO51" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AP51" s="269" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AQ51" s="90"/>
       <c r="AR51" s="90"/>
@@ -19788,19 +19818,19 @@
         <v>5</v>
       </c>
       <c r="E52" s="178" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F52" s="179"/>
       <c r="G52" s="179"/>
       <c r="H52" s="180"/>
       <c r="I52" s="345" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J52" s="346"/>
       <c r="K52" s="346"/>
       <c r="L52" s="347"/>
       <c r="M52" s="265" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N52" s="266"/>
       <c r="O52" s="266"/>
@@ -19810,22 +19840,22 @@
       <c r="S52" s="266"/>
       <c r="T52" s="267"/>
       <c r="U52" s="175" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="V52" s="176"/>
       <c r="W52" s="176"/>
       <c r="X52" s="176"/>
       <c r="Y52" s="177"/>
       <c r="Z52" s="263" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AA52" s="263"/>
       <c r="AB52" s="263"/>
       <c r="AC52" s="117" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD52" s="175" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AE52" s="273"/>
       <c r="AF52" s="273"/>
@@ -19835,19 +19865,19 @@
       <c r="AJ52" s="90"/>
       <c r="AK52" s="90"/>
       <c r="AL52" s="178" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM52" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AN52" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AO52" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AP52" s="269" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AQ52" s="90"/>
       <c r="AR52" s="90"/>
@@ -19860,19 +19890,19 @@
         <v>6</v>
       </c>
       <c r="E53" s="178" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F53" s="179"/>
       <c r="G53" s="179"/>
       <c r="H53" s="180"/>
       <c r="I53" s="371" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J53" s="372"/>
       <c r="K53" s="372"/>
       <c r="L53" s="373"/>
       <c r="M53" s="265" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N53" s="266"/>
       <c r="O53" s="266"/>
@@ -19882,40 +19912,40 @@
       <c r="S53" s="266"/>
       <c r="T53" s="267"/>
       <c r="U53" s="175" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="V53" s="176"/>
       <c r="W53" s="176"/>
       <c r="X53" s="176"/>
       <c r="Y53" s="177"/>
       <c r="Z53" s="175" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AA53" s="176"/>
       <c r="AB53" s="177"/>
       <c r="AC53" s="117" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD53" s="175" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AE53" s="273"/>
       <c r="AF53" s="273"/>
       <c r="AG53" s="274"/>
       <c r="AL53" s="178" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM53" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AN53" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AO53" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AP53" s="269" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="54" spans="3:48" x14ac:dyDescent="0.15">
@@ -19924,19 +19954,19 @@
         <v>7</v>
       </c>
       <c r="E54" s="178" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F54" s="179"/>
       <c r="G54" s="179"/>
       <c r="H54" s="180"/>
       <c r="I54" s="371" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J54" s="372"/>
       <c r="K54" s="372"/>
       <c r="L54" s="373"/>
       <c r="M54" s="265" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N54" s="266"/>
       <c r="O54" s="266"/>
@@ -19946,40 +19976,40 @@
       <c r="S54" s="266"/>
       <c r="T54" s="267"/>
       <c r="U54" s="175" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="V54" s="176"/>
       <c r="W54" s="176"/>
       <c r="X54" s="176"/>
       <c r="Y54" s="177"/>
       <c r="Z54" s="175" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AA54" s="176"/>
       <c r="AB54" s="177"/>
       <c r="AC54" s="117" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD54" s="175" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AE54" s="273"/>
       <c r="AF54" s="273"/>
       <c r="AG54" s="274"/>
       <c r="AL54" s="178" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM54" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AN54" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AO54" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AP54" s="269" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="3:48" s="62" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -19988,19 +20018,19 @@
         <v>8</v>
       </c>
       <c r="E55" s="178" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F55" s="179"/>
       <c r="G55" s="179"/>
       <c r="H55" s="180"/>
       <c r="I55" s="345" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J55" s="346"/>
       <c r="K55" s="346"/>
       <c r="L55" s="347"/>
       <c r="M55" s="265" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N55" s="266"/>
       <c r="O55" s="266"/>
@@ -20010,40 +20040,40 @@
       <c r="S55" s="266"/>
       <c r="T55" s="267"/>
       <c r="U55" s="175" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V55" s="176"/>
       <c r="W55" s="176"/>
       <c r="X55" s="176"/>
       <c r="Y55" s="177"/>
       <c r="Z55" s="175" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AA55" s="176"/>
       <c r="AB55" s="177"/>
       <c r="AC55" s="117" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD55" s="175" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AE55" s="273"/>
       <c r="AF55" s="273"/>
       <c r="AG55" s="274"/>
       <c r="AL55" s="178" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM55" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AN55" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AO55" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AP55" s="269" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AV55" s="73"/>
     </row>
@@ -20053,19 +20083,19 @@
         <v>9</v>
       </c>
       <c r="E56" s="178" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F56" s="179"/>
       <c r="G56" s="179"/>
       <c r="H56" s="180"/>
       <c r="I56" s="345" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J56" s="346"/>
       <c r="K56" s="346"/>
       <c r="L56" s="347"/>
       <c r="M56" s="265" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N56" s="266"/>
       <c r="O56" s="266"/>
@@ -20075,40 +20105,40 @@
       <c r="S56" s="266"/>
       <c r="T56" s="267"/>
       <c r="U56" s="175" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V56" s="176"/>
       <c r="W56" s="176"/>
       <c r="X56" s="176"/>
       <c r="Y56" s="177"/>
       <c r="Z56" s="175" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AA56" s="176"/>
       <c r="AB56" s="177"/>
       <c r="AC56" s="117" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD56" s="175" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AE56" s="273"/>
       <c r="AF56" s="273"/>
       <c r="AG56" s="274"/>
       <c r="AL56" s="178" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM56" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AN56" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AO56" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AP56" s="269" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AV56" s="73"/>
     </row>
@@ -20118,19 +20148,19 @@
         <v>10</v>
       </c>
       <c r="E57" s="175" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F57" s="176"/>
       <c r="G57" s="176"/>
       <c r="H57" s="177"/>
       <c r="I57" s="345" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J57" s="346"/>
       <c r="K57" s="346"/>
       <c r="L57" s="347"/>
       <c r="M57" s="265" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N57" s="266"/>
       <c r="O57" s="266"/>
@@ -20140,22 +20170,22 @@
       <c r="S57" s="266"/>
       <c r="T57" s="267"/>
       <c r="U57" s="175" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V57" s="176"/>
       <c r="W57" s="176"/>
       <c r="X57" s="176"/>
       <c r="Y57" s="177"/>
       <c r="Z57" s="175" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AA57" s="176"/>
       <c r="AB57" s="177"/>
       <c r="AC57" s="117" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD57" s="175" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AE57" s="273"/>
       <c r="AF57" s="273"/>
@@ -20165,19 +20195,19 @@
       <c r="AJ57" s="90"/>
       <c r="AK57" s="90"/>
       <c r="AL57" s="178" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM57" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AN57" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AO57" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AP57" s="269" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AQ57" s="90"/>
       <c r="AR57" s="90"/>
@@ -20188,19 +20218,19 @@
         <v>11</v>
       </c>
       <c r="E58" s="175" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F58" s="176"/>
       <c r="G58" s="176"/>
       <c r="H58" s="177"/>
       <c r="I58" s="345" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J58" s="346"/>
       <c r="K58" s="346"/>
       <c r="L58" s="347"/>
       <c r="M58" s="265" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N58" s="266"/>
       <c r="O58" s="266"/>
@@ -20210,40 +20240,40 @@
       <c r="S58" s="266"/>
       <c r="T58" s="267"/>
       <c r="U58" s="175" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V58" s="176"/>
       <c r="W58" s="176"/>
       <c r="X58" s="176"/>
       <c r="Y58" s="177"/>
       <c r="Z58" s="175" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AA58" s="176"/>
       <c r="AB58" s="177"/>
       <c r="AC58" s="117" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD58" s="175" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AE58" s="273"/>
       <c r="AF58" s="273"/>
       <c r="AG58" s="274"/>
       <c r="AL58" s="178" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM58" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AN58" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AO58" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AP58" s="269" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="3:48" s="62" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -20258,13 +20288,13 @@
       <c r="G59" s="179"/>
       <c r="H59" s="180"/>
       <c r="I59" s="345" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J59" s="346"/>
       <c r="K59" s="346"/>
       <c r="L59" s="347"/>
       <c r="M59" s="265" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N59" s="266"/>
       <c r="O59" s="266"/>
@@ -20274,40 +20304,40 @@
       <c r="S59" s="266"/>
       <c r="T59" s="267"/>
       <c r="U59" s="175" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="V59" s="176"/>
       <c r="W59" s="176"/>
       <c r="X59" s="176"/>
       <c r="Y59" s="177"/>
       <c r="Z59" s="175" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AA59" s="176"/>
       <c r="AB59" s="177"/>
       <c r="AC59" s="117" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD59" s="175" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AE59" s="273"/>
       <c r="AF59" s="273"/>
       <c r="AG59" s="274"/>
       <c r="AL59" s="178" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM59" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AN59" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AO59" s="246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AP59" s="269" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AV59" s="73"/>
     </row>
@@ -20350,7 +20380,7 @@
     </row>
     <row r="62" spans="3:48" x14ac:dyDescent="0.15">
       <c r="C62" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D62" s="62"/>
       <c r="E62" s="93"/>
@@ -20393,7 +20423,7 @@
     </row>
     <row r="64" spans="3:48" x14ac:dyDescent="0.15">
       <c r="D64" s="250" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E64" s="252" t="s">
         <v>49</v>
@@ -20484,7 +20514,7 @@
         <v>1</v>
       </c>
       <c r="E66" s="338" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F66" s="339"/>
       <c r="G66" s="339"/>
@@ -20492,32 +20522,32 @@
       <c r="I66" s="339"/>
       <c r="J66" s="340"/>
       <c r="K66" s="280" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L66" s="273"/>
       <c r="M66" s="273"/>
       <c r="N66" s="274"/>
       <c r="O66" s="98" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P66" s="110" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="110" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R66" s="110" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="110" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="341" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="342"/>
       <c r="V66" s="280" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W66" s="273"/>
       <c r="X66" s="273"/>
@@ -20537,7 +20567,7 @@
         <v>2</v>
       </c>
       <c r="E67" s="338" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F67" s="339"/>
       <c r="G67" s="339"/>
@@ -20545,32 +20575,32 @@
       <c r="I67" s="339"/>
       <c r="J67" s="340"/>
       <c r="K67" s="280" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L67" s="273"/>
       <c r="M67" s="273"/>
       <c r="N67" s="274"/>
       <c r="O67" s="98" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P67" s="110" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q67" s="110" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R67" s="110" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S67" s="110" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T67" s="341" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U67" s="342"/>
       <c r="V67" s="280" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W67" s="273"/>
       <c r="X67" s="273"/>
@@ -20653,7 +20683,7 @@
     </row>
     <row r="70" spans="3:36" x14ac:dyDescent="0.15">
       <c r="C70" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="72" spans="3:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -20696,7 +20726,7 @@
       <c r="AC72" s="235"/>
       <c r="AD72" s="236"/>
       <c r="AE72" s="379" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF72" s="380"/>
       <c r="AG72" s="380"/>
@@ -20707,7 +20737,7 @@
         <v>1</v>
       </c>
       <c r="E73" s="281" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F73" s="281"/>
       <c r="G73" s="281"/>
@@ -20715,7 +20745,7 @@
       <c r="I73" s="281"/>
       <c r="J73" s="281"/>
       <c r="K73" s="281" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L73" s="281"/>
       <c r="M73" s="281"/>
@@ -20724,7 +20754,7 @@
       <c r="P73" s="281"/>
       <c r="Q73" s="281"/>
       <c r="R73" s="263" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="S73" s="281"/>
       <c r="T73" s="281"/>
@@ -20734,7 +20764,7 @@
       <c r="X73" s="281"/>
       <c r="Y73" s="281"/>
       <c r="Z73" s="281" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AA73" s="281"/>
       <c r="AB73" s="281"/>
@@ -20752,7 +20782,7 @@
         <v>2</v>
       </c>
       <c r="E74" s="263" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F74" s="281"/>
       <c r="G74" s="281"/>
@@ -20760,7 +20790,7 @@
       <c r="I74" s="281"/>
       <c r="J74" s="281"/>
       <c r="K74" s="263" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L74" s="281"/>
       <c r="M74" s="281"/>
@@ -20769,7 +20799,7 @@
       <c r="P74" s="281"/>
       <c r="Q74" s="281"/>
       <c r="R74" s="263" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="S74" s="281"/>
       <c r="T74" s="281"/>
@@ -20779,7 +20809,7 @@
       <c r="X74" s="281"/>
       <c r="Y74" s="281"/>
       <c r="Z74" s="263" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AA74" s="281"/>
       <c r="AB74" s="281"/>
@@ -20797,7 +20827,7 @@
         <v>3</v>
       </c>
       <c r="E75" s="343" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F75" s="344"/>
       <c r="G75" s="344"/>
@@ -20805,7 +20835,7 @@
       <c r="I75" s="344"/>
       <c r="J75" s="344"/>
       <c r="K75" s="343" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L75" s="344"/>
       <c r="M75" s="344"/>
@@ -20814,7 +20844,7 @@
       <c r="P75" s="344"/>
       <c r="Q75" s="344"/>
       <c r="R75" s="343" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="S75" s="344"/>
       <c r="T75" s="344"/>
@@ -20824,7 +20854,7 @@
       <c r="X75" s="344"/>
       <c r="Y75" s="344"/>
       <c r="Z75" s="343" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AA75" s="344"/>
       <c r="AB75" s="344"/>
@@ -20844,7 +20874,7 @@
     </row>
     <row r="77" spans="3:36" x14ac:dyDescent="0.15">
       <c r="C77" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D77" s="29"/>
       <c r="E77" s="29"/>
@@ -20854,7 +20884,7 @@
     </row>
     <row r="78" spans="3:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D78" s="26" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E78" s="29"/>
     </row>
@@ -20865,7 +20895,7 @@
     <row r="80" spans="3:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D80" s="29"/>
       <c r="E80" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -20876,7 +20906,7 @@
       <c r="D82" s="26"/>
       <c r="E82" s="26"/>
       <c r="F82" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -20885,7 +20915,7 @@
     </row>
     <row r="84" spans="4:33" x14ac:dyDescent="0.15">
       <c r="E84" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="4:33" x14ac:dyDescent="0.15">
@@ -20893,12 +20923,12 @@
     </row>
     <row r="86" spans="4:33" x14ac:dyDescent="0.15">
       <c r="F86" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="88" spans="4:33" x14ac:dyDescent="0.15">
       <c r="G88" s="123" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H88" s="124"/>
       <c r="I88" s="124"/>
@@ -20907,7 +20937,7 @@
       <c r="L88" s="124"/>
       <c r="M88" s="124"/>
       <c r="N88" s="282" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O88" s="283"/>
       <c r="P88" s="283"/>
@@ -20933,7 +20963,7 @@
     </row>
     <row r="89" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G89" s="115" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H89" s="125"/>
       <c r="I89" s="125"/>
@@ -20942,7 +20972,7 @@
       <c r="L89" s="125"/>
       <c r="M89" s="125"/>
       <c r="N89" s="338" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O89" s="339"/>
       <c r="P89" s="339"/>
@@ -20954,7 +20984,7 @@
       <c r="V89" s="339"/>
       <c r="W89" s="340"/>
       <c r="X89" s="338" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y89" s="339"/>
       <c r="Z89" s="339"/>
@@ -20975,7 +21005,7 @@
       <c r="L90" s="26"/>
       <c r="M90" s="26"/>
       <c r="N90" s="338" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O90" s="339"/>
       <c r="P90" s="339"/>
@@ -20987,7 +21017,7 @@
       <c r="V90" s="339"/>
       <c r="W90" s="340"/>
       <c r="X90" s="338" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Y90" s="339"/>
       <c r="Z90" s="339"/>
@@ -21008,7 +21038,7 @@
       <c r="L91" s="26"/>
       <c r="M91" s="26"/>
       <c r="N91" s="338" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O91" s="339"/>
       <c r="P91" s="339"/>
@@ -21020,7 +21050,7 @@
       <c r="V91" s="339"/>
       <c r="W91" s="340"/>
       <c r="X91" s="338" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Y91" s="339"/>
       <c r="Z91" s="339"/>
@@ -21041,7 +21071,7 @@
       <c r="L92" s="26"/>
       <c r="M92" s="26"/>
       <c r="N92" s="338" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O92" s="339"/>
       <c r="P92" s="339"/>
@@ -21053,7 +21083,7 @@
       <c r="V92" s="339"/>
       <c r="W92" s="340"/>
       <c r="X92" s="338" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Y92" s="339"/>
       <c r="Z92" s="339"/>
@@ -21074,7 +21104,7 @@
       <c r="L93" s="26"/>
       <c r="M93" s="26"/>
       <c r="N93" s="338" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O93" s="339"/>
       <c r="P93" s="339"/>
@@ -21086,7 +21116,7 @@
       <c r="V93" s="339"/>
       <c r="W93" s="340"/>
       <c r="X93" s="338" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Y93" s="339"/>
       <c r="Z93" s="339"/>
@@ -21107,7 +21137,7 @@
       <c r="L94" s="26"/>
       <c r="M94" s="26"/>
       <c r="N94" s="338" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O94" s="339"/>
       <c r="P94" s="339"/>
@@ -21119,7 +21149,7 @@
       <c r="V94" s="339"/>
       <c r="W94" s="340"/>
       <c r="X94" s="338" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Y94" s="339"/>
       <c r="Z94" s="339"/>
@@ -21140,7 +21170,7 @@
       <c r="L95" s="26"/>
       <c r="M95" s="26"/>
       <c r="N95" s="338" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O95" s="339"/>
       <c r="P95" s="339"/>
@@ -21152,7 +21182,7 @@
       <c r="V95" s="339"/>
       <c r="W95" s="340"/>
       <c r="X95" s="338" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Y95" s="339"/>
       <c r="Z95" s="339"/>
@@ -21173,7 +21203,7 @@
       <c r="L96" s="26"/>
       <c r="M96" s="26"/>
       <c r="N96" s="338" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O96" s="339"/>
       <c r="P96" s="339"/>
@@ -21185,7 +21215,7 @@
       <c r="V96" s="339"/>
       <c r="W96" s="340"/>
       <c r="X96" s="338" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Y96" s="339"/>
       <c r="Z96" s="339"/>
@@ -21206,7 +21236,7 @@
       <c r="L97" s="26"/>
       <c r="M97" s="26"/>
       <c r="N97" s="338" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O97" s="339"/>
       <c r="P97" s="339"/>
@@ -21218,7 +21248,7 @@
       <c r="V97" s="339"/>
       <c r="W97" s="340"/>
       <c r="X97" s="338" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Y97" s="339"/>
       <c r="Z97" s="339"/>
@@ -21239,7 +21269,7 @@
       <c r="L98" s="26"/>
       <c r="M98" s="26"/>
       <c r="N98" s="338" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O98" s="339"/>
       <c r="P98" s="339"/>
@@ -21251,7 +21281,7 @@
       <c r="V98" s="339"/>
       <c r="W98" s="340"/>
       <c r="X98" s="338" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Y98" s="339"/>
       <c r="Z98" s="339"/>
@@ -21298,7 +21328,7 @@
     </row>
     <row r="100" spans="7:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G100" s="178" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H100" s="179"/>
       <c r="I100" s="179"/>
@@ -21307,7 +21337,7 @@
       <c r="L100" s="179"/>
       <c r="M100" s="180"/>
       <c r="N100" s="338" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O100" s="339"/>
       <c r="P100" s="339"/>
@@ -21319,7 +21349,7 @@
       <c r="V100" s="339"/>
       <c r="W100" s="340"/>
       <c r="X100" s="338" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Y100" s="339"/>
       <c r="Z100" s="339"/>
@@ -21333,7 +21363,7 @@
     </row>
     <row r="101" spans="7:58" x14ac:dyDescent="0.15">
       <c r="G101" s="178" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H101" s="179"/>
       <c r="I101" s="179"/>
@@ -21342,7 +21372,7 @@
       <c r="L101" s="179"/>
       <c r="M101" s="180"/>
       <c r="N101" s="367" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O101" s="368"/>
       <c r="P101" s="368"/>
@@ -21354,7 +21384,7 @@
       <c r="V101" s="368"/>
       <c r="W101" s="369"/>
       <c r="X101" s="367" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Y101" s="368"/>
       <c r="Z101" s="368"/>
@@ -21378,7 +21408,7 @@
     </row>
     <row r="102" spans="7:58" x14ac:dyDescent="0.15">
       <c r="G102" s="366" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H102" s="363"/>
       <c r="I102" s="363"/>
@@ -21479,7 +21509,7 @@
     <row r="104" spans="7:58" x14ac:dyDescent="0.15">
       <c r="G104" s="79"/>
       <c r="H104" s="118" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I104" s="80"/>
       <c r="J104" s="80"/>
@@ -21562,13 +21592,13 @@
       <c r="G106" s="79"/>
       <c r="H106" s="118"/>
       <c r="I106" s="134" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J106" s="81"/>
       <c r="K106" s="80"/>
       <c r="L106" s="80"/>
       <c r="M106" s="118" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N106" s="80"/>
       <c r="O106" s="80"/>
@@ -21612,20 +21642,20 @@
       <c r="G107" s="79"/>
       <c r="H107" s="118"/>
       <c r="I107" s="118" t="s">
+        <v>244</v>
+      </c>
+      <c r="J107" s="80" t="s">
         <v>245</v>
-      </c>
-      <c r="J107" s="80" t="s">
-        <v>246</v>
       </c>
       <c r="K107" s="80"/>
       <c r="L107" s="81"/>
       <c r="M107" s="81"/>
       <c r="N107" s="80"/>
       <c r="O107" s="118" t="s">
+        <v>249</v>
+      </c>
+      <c r="P107" s="118" t="s">
         <v>250</v>
-      </c>
-      <c r="P107" s="118" t="s">
-        <v>251</v>
       </c>
       <c r="Q107" s="80"/>
       <c r="R107" s="80"/>
@@ -21712,13 +21742,13 @@
       <c r="G109" s="79"/>
       <c r="H109" s="118"/>
       <c r="I109" s="134" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J109" s="81"/>
       <c r="K109" s="80"/>
       <c r="L109" s="80"/>
       <c r="M109" s="118" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N109" s="80"/>
       <c r="O109" s="80"/>
@@ -21762,20 +21792,20 @@
       <c r="G110" s="79"/>
       <c r="H110" s="118"/>
       <c r="I110" s="118" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J110" s="118" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K110" s="80"/>
       <c r="L110" s="81"/>
       <c r="M110" s="81"/>
       <c r="N110" s="80"/>
       <c r="O110" s="118" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P110" s="118" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q110" s="80"/>
       <c r="R110" s="80"/>
@@ -21866,7 +21896,7 @@
     </row>
     <row r="112" spans="7:58" x14ac:dyDescent="0.15">
       <c r="G112" s="362" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H112" s="363"/>
       <c r="I112" s="363"/>
@@ -21967,19 +21997,19 @@
     <row r="114" spans="5:58" x14ac:dyDescent="0.15">
       <c r="G114" s="79"/>
       <c r="J114" s="118" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K114" s="80"/>
       <c r="L114" s="80"/>
       <c r="M114" s="80"/>
       <c r="N114" s="81"/>
       <c r="R114" s="81" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S114" s="80"/>
       <c r="T114" s="80"/>
       <c r="U114" s="118" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="V114" s="80"/>
       <c r="W114" s="80"/>
@@ -22111,7 +22141,7 @@
     </row>
     <row r="117" spans="5:58" x14ac:dyDescent="0.15">
       <c r="F117" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G117" s="80"/>
       <c r="H117" s="80"/>
@@ -22229,7 +22259,7 @@
     </row>
     <row r="120" spans="5:58" x14ac:dyDescent="0.15">
       <c r="E120" s="62" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F120" s="93"/>
       <c r="G120" s="93"/>
@@ -22266,7 +22296,7 @@
     <row r="121" spans="5:58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E121" s="144"/>
       <c r="F121" s="43" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G121" s="149"/>
       <c r="H121" s="149"/>
@@ -22336,7 +22366,7 @@
     <row r="123" spans="5:58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F123" s="144"/>
       <c r="G123" s="43" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H123" s="43"/>
       <c r="I123" s="149"/>
@@ -22404,7 +22434,7 @@
     <row r="125" spans="5:58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E125" s="144"/>
       <c r="F125" s="43" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G125" s="149"/>
       <c r="H125" s="149"/>
@@ -22474,7 +22504,7 @@
     <row r="127" spans="5:58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F127" s="144"/>
       <c r="G127" s="43" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H127" s="149"/>
       <c r="I127" s="149"/>
@@ -22534,7 +22564,7 @@
     </row>
     <row r="129" spans="4:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D129" s="26" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E129" s="29"/>
     </row>
@@ -22565,7 +22595,7 @@
     </row>
     <row r="131" spans="4:58" x14ac:dyDescent="0.15">
       <c r="E131" s="43" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AJ131" s="75"/>
       <c r="AK131" s="75"/>
@@ -22593,7 +22623,7 @@
     </row>
     <row r="132" spans="4:58" x14ac:dyDescent="0.15">
       <c r="E132" s="43" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F132" s="91"/>
       <c r="G132" s="43"/>
@@ -22623,17 +22653,17 @@
     </row>
     <row r="135" spans="4:58" x14ac:dyDescent="0.15">
       <c r="D135" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="136" spans="4:58" x14ac:dyDescent="0.15">
       <c r="E136" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="137" spans="4:58" x14ac:dyDescent="0.15">
       <c r="E137" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -22899,15 +22929,15 @@
         <v>79</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C2" s="55" t="s">
         <v>80</v>
@@ -22921,7 +22951,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C3" s="50" t="s">
         <v>81</v>
@@ -22935,7 +22965,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C4" s="50" t="s">
         <v>82</v>
@@ -22949,7 +22979,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5" s="50" t="s">
         <v>83</v>
@@ -22993,12 +23023,12 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="50" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="50" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
